--- a/testData/user_test_data.xlsx
+++ b/testData/user_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="12" r:id="rId1"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test1.用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zzf@fort.cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -571,10 +567,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加开关为关的用户a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>简称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -662,6 +654,14 @@
   </si>
   <si>
     <t>系统管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1.用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1177,7 +1177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1189,18 +1189,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1228,19 +1228,19 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -1248,18 +1248,18 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14"/>
       <c r="G2" s="1"/>
       <c r="H2" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1287,19 +1287,19 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -1307,38 +1307,38 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14"/>
       <c r="G2" s="1"/>
       <c r="H2" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1369,19 +1369,19 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -1389,18 +1389,18 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14"/>
       <c r="G2" s="1"/>
       <c r="H2" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1414,7 +1414,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="A1:XFD1 A2:XFD2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1430,27 +1430,27 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1465,7 +1465,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1481,21 +1481,21 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1526,30 +1526,30 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1774,8 +1774,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1794,52 +1794,52 @@
   <sheetData>
     <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>5</v>
@@ -1850,13 +1850,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1874,36 +1874,36 @@
         <v>15210005447</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1923,7 +1923,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q3" s="13"/>
     </row>
@@ -2303,8 +2303,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2327,55 +2327,55 @@
   <sheetData>
     <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="C1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>5</v>
@@ -2383,24 +2383,24 @@
     </row>
     <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -2415,22 +2415,22 @@
         <v>15210005448</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P2" s="2">
         <v>0</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1">
@@ -2533,43 +2533,43 @@
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>5</v>
@@ -2577,14 +2577,14 @@
     </row>
     <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -2602,21 +2602,21 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="D3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -2634,21 +2634,21 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C4" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -2666,21 +2666,21 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2698,18 +2698,18 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2728,21 +2728,21 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2756,21 +2756,21 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2786,21 +2786,21 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2818,21 +2818,21 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>40</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2852,21 +2852,21 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2879,28 +2879,28 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2920,21 +2920,21 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2952,7 +2952,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
@@ -3039,19 +3039,19 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -3059,14 +3059,14 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -3075,15 +3075,15 @@
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="9"/>
       <c r="E3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -3091,43 +3091,43 @@
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="14"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="14"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="1"/>
@@ -3137,14 +3137,14 @@
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="14"/>
@@ -3153,23 +3153,23 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="14"/>
@@ -3242,10 +3242,10 @@
         <v>12</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>13</v>
@@ -3254,10 +3254,10 @@
         <v>14</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>5</v>
@@ -3265,22 +3265,22 @@
     </row>
     <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3317,13 +3317,13 @@
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -3389,13 +3389,13 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -3403,18 +3403,18 @@
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:6">

--- a/testData/user_test_data.xlsx
+++ b/testData/user_test_data.xlsx
@@ -4,35 +4,29 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="role" sheetId="12" r:id="rId1"/>
-    <sheet name="login" sheetId="1" r:id="rId2"/>
-    <sheet name="add_user" sheetId="2" r:id="rId3"/>
-    <sheet name="mod_user" sheetId="3" r:id="rId4"/>
-    <sheet name="user_check" sheetId="4" r:id="rId5"/>
-    <sheet name="search_user" sheetId="5" r:id="rId6"/>
-    <sheet name="del_user" sheetId="6" r:id="rId7"/>
-    <sheet name="del_all_user" sheetId="7" r:id="rId8"/>
-    <sheet name="search_by_role" sheetId="8" r:id="rId9"/>
-    <sheet name="search_by_dep" sheetId="9" r:id="rId10"/>
-    <sheet name="search_by_status" sheetId="10" r:id="rId11"/>
-    <sheet name="search_by_name" sheetId="11" r:id="rId12"/>
-    <sheet name="create_cert" sheetId="13" r:id="rId13"/>
-    <sheet name="reCreate_cert" sheetId="15" r:id="rId14"/>
-    <sheet name="delete_cert" sheetId="14" r:id="rId15"/>
+    <sheet name="add_user" sheetId="2" r:id="rId1"/>
+    <sheet name="mod_user" sheetId="3" r:id="rId2"/>
+    <sheet name="user_check" sheetId="4" r:id="rId3"/>
+    <sheet name="search_user" sheetId="5" r:id="rId4"/>
+    <sheet name="del_user" sheetId="6" r:id="rId5"/>
+    <sheet name="del_all_user" sheetId="7" r:id="rId6"/>
+    <sheet name="search_by_role" sheetId="8" r:id="rId7"/>
+    <sheet name="search_by_dep" sheetId="9" r:id="rId8"/>
+    <sheet name="search_by_status" sheetId="10" r:id="rId9"/>
+    <sheet name="search_by_name" sheetId="11" r:id="rId10"/>
+    <sheet name="create_cert" sheetId="13" r:id="rId11"/>
+    <sheet name="reCreate_cert" sheetId="15" r:id="rId12"/>
+    <sheet name="delete_cert" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="152">
-  <si>
-    <t>登陆方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="148">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isomper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,10 +117,6 @@
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统管理员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -346,10 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>临时部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_.123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -567,14 +549,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>简称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>证书名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -653,15 +627,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系统管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test1.用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员,bm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOT部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -741,7 +723,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -768,37 +750,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -811,7 +767,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -827,29 +783,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1175,607 +1119,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="8" max="8" width="28.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="8" max="8" width="32.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27">
-      <c r="A3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="8" max="8" width="31.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="5" max="5" width="30.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="39.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="2" width="57.625" customWidth="1"/>
-    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1794,69 +1142,69 @@
   <sheetData>
     <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>5</v>
+      <c r="Q1" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1874,36 +1222,36 @@
         <v>15210005447</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>26</v>
+        <v>145</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1923,9 +1271,9 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q3" s="13"/>
+        <v>146</v>
+      </c>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1"/>
@@ -1982,7 +1330,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="13"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="1"/>
@@ -2118,175 +1466,175 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" ht="18" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="1:17" ht="18" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="1:17" ht="18" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="18" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="18" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
     </row>
     <row r="19" spans="1:17" ht="18" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="1:17" ht="18" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="1:17" ht="18" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="1:17" ht="18" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2298,13 +1646,224 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="8" max="8" width="31.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="39.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2327,81 +1886,79 @@
   <sheetData>
     <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>5</v>
+      <c r="R1" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>95</v>
+        <v>19</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="2">
         <v>0</v>
       </c>
@@ -2414,23 +1971,23 @@
       <c r="L2" s="2">
         <v>15210005448</v>
       </c>
-      <c r="M2" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>78</v>
+      <c r="M2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P2" s="2">
         <v>0</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>75</v>
+      <c r="Q2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1">
@@ -2480,7 +2037,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="6"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -2503,7 +2060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P16"/>
@@ -2527,68 +2084,68 @@
   <sheetData>
     <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="1">
         <v>1</v>
       </c>
@@ -2602,25 +2159,25 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="1">
         <v>1</v>
       </c>
@@ -2634,25 +2191,25 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="1">
         <v>1</v>
       </c>
@@ -2666,25 +2223,25 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="13"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
@@ -2698,23 +2255,23 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>35</v>
+        <v>100</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="13"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="1">
         <v>1</v>
       </c>
@@ -2728,25 +2285,25 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="13"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2756,25 +2313,25 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="13"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="1">
         <v>1</v>
       </c>
@@ -2786,25 +2343,25 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="13"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="1">
         <v>1</v>
       </c>
@@ -2818,25 +2375,25 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="13"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="1">
         <v>1</v>
       </c>
@@ -2852,25 +2409,25 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>35</v>
+        <v>99</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="13"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="1">
         <v>1</v>
       </c>
@@ -2879,32 +2436,32 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>35</v>
+        <v>122</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="13"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="1">
         <v>1</v>
       </c>
@@ -2920,25 +2477,25 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>35</v>
+        <v>98</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="13"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="1">
         <v>1</v>
       </c>
@@ -2952,17 +2509,17 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="14"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="13"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2980,7 +2537,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="13"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -3015,7 +2572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H10"/>
@@ -3035,38 +2592,38 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="9" t="s">
-        <v>35</v>
+      <c r="D2" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -3075,15 +2632,15 @@
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="9"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -3091,45 +2648,45 @@
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="14"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="14"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="D6" s="10"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -3137,42 +2694,42 @@
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="14"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
@@ -3193,7 +2750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P2"/>
@@ -3215,72 +2772,72 @@
   <sheetData>
     <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>146</v>
+      <c r="G2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3289,7 +2846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -3306,24 +2863,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -3367,7 +2924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -3385,40 +2942,181 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>135</v>
+      <c r="D2" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="8" max="8" width="28.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="8" max="8" width="32.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27">
+      <c r="A3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="9" t="s">
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testData/user_test_data.xlsx
+++ b/testData/user_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="add_user" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="148">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,10 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检索ROOT部门的用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ROOT部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,42 +289,6 @@
   </si>
   <si>
     <t>所属部门6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户状态7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认口令9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>座机11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子邮箱12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证方式14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -497,10 +457,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系统管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检索角色为系统管理员的用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -635,15 +591,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系统管理员,bm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>地址12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证方式13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索临时部门的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索部门为临时部门的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索ROOT部门及其子部门的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ROOT部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xt,bm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索条件3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad域用户14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1122,8 +1122,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1134,60 +1134,60 @@
     <col min="4" max="4" width="17.375" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
     <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="7" max="8" width="13.625" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="16" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="16" width="16.375" customWidth="1"/>
     <col min="17" max="17" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>4</v>
@@ -1204,11 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="H2" s="2">
         <v>1</v>
       </c>
@@ -1216,25 +1218,23 @@
         <v>1</v>
       </c>
       <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
         <v>15210005447</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
+      <c r="N2" s="2">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>23</v>
@@ -1248,10 +1248,10 @@
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1262,16 +1262,14 @@
       <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="Q3" s="9"/>
     </row>
@@ -1639,7 +1637,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="L2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
@@ -1671,7 +1669,7 @@
         <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>43</v>
@@ -1688,18 +1686,18 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="10"/>
       <c r="G2" s="1"/>
       <c r="H2" s="9" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1729,27 +1727,27 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1780,21 +1778,21 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1825,30 +1823,30 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1886,55 +1884,55 @@
   <sheetData>
     <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="C1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>4</v>
@@ -1948,10 +1946,10 @@
         <v>19</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
@@ -1972,22 +1970,22 @@
         <v>15210005448</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P2" s="2">
         <v>0</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1">
@@ -2090,34 +2088,34 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
@@ -2159,7 +2157,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1">
@@ -2191,7 +2189,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1">
@@ -2223,12 +2221,12 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
@@ -2255,15 +2253,15 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>32</v>
@@ -2285,12 +2283,12 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>38</v>
@@ -2313,12 +2311,12 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>39</v>
@@ -2343,12 +2341,12 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>39</v>
@@ -2375,12 +2373,12 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
@@ -2409,15 +2407,15 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>32</v>
@@ -2443,15 +2441,15 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>32</v>
@@ -2477,15 +2475,15 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>32</v>
@@ -2509,7 +2507,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
@@ -2578,7 +2576,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" activeCellId="1" sqref="A7:XFD7 A8:XFD8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2599,7 +2597,7 @@
         <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>43</v>
@@ -2616,7 +2614,7 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2664,7 +2662,7 @@
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>51</v>
@@ -2680,11 +2678,13 @@
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="1"/>
@@ -2694,14 +2694,14 @@
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="10"/>
@@ -2716,17 +2716,17 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="10"/>
@@ -2825,10 +2825,10 @@
         <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2837,7 +2837,7 @@
         <v>40</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2877,10 +2877,10 @@
         <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -2929,7 +2929,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2949,10 +2949,10 @@
         <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -2960,18 +2960,18 @@
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="8" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2985,15 +2985,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="28.375" customWidth="1"/>
@@ -3008,7 +3008,7 @@
         <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>43</v>
@@ -3025,23 +3025,38 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="10"/>
       <c r="G2" s="1"/>
       <c r="H2" s="9" t="s">
-        <v>129</v>
-      </c>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3067,7 +3082,7 @@
         <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>43</v>
@@ -3084,20 +3099,20 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="10"/>
       <c r="G2" s="1"/>
       <c r="H2" s="9" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27">
@@ -3109,13 +3124,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="9" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/testData/user_test_data.xlsx
+++ b/testData/user_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="add_user" sheetId="2" r:id="rId1"/>
@@ -603,6 +603,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>角色14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad域用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>临时部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -636,14 +644,6 @@
   </si>
   <si>
     <t>检索条件3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad域用户14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1122,8 +1122,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1184,10 +1184,10 @@
         <v>136</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>4</v>
@@ -1209,7 +1209,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>23</v>
@@ -2678,10 +2678,10 @@
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>52</v>
@@ -2928,7 +2928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2949,7 +2949,7 @@
         <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>102</v>
@@ -2965,10 +2965,10 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>118</v>
@@ -3025,12 +3025,12 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="10"/>
@@ -3041,12 +3041,12 @@
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>

--- a/testData/user_test_data.xlsx
+++ b/testData/user_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="add_user" sheetId="2" r:id="rId1"/>
@@ -26,23 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="148">
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="136">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,34 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zzf@fort.cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,14 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>座机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高粱桥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,15 +56,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>认证方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_.123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -189,33 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>删除单个用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,23 +137,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号\名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初始化用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -421,10 +318,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检索账号或者用户名为test的用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检索用户状态为开的用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -437,10 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检索条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>switch_on</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -461,10 +350,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检索用户名称或者账号为a的用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -502,14 +387,6 @@
   </si>
   <si>
     <t>不选择部门(aa用户不能存在)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证书名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -603,47 +480,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>临时部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索临时部门的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索部门为临时部门的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索ROOT部门及其子部门的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOT部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xt,bm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索条件3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad域用户14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>角色14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ad域用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检索临时部门的用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检索部门为临时部门的用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检索ROOT部门及其子部门的用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROOT部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xt,bm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检索条件3</t>
+    <t>检查条件1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户状态2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号\名称5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S02_checkout_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S02_search_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索账号或者用户名为aa的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书名称2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户账号2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,7 +580,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,23 +613,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -723,7 +635,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -757,6 +669,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -767,7 +701,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,9 +715,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -801,20 +732,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1120,96 +1051,102 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="29.75" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="7" max="7" width="13.625" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="16" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="9.75" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="12.25" customWidth="1"/>
+    <col min="11" max="12" width="16.375" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="13.875" customWidth="1"/>
+    <col min="15" max="15" width="14.875" customWidth="1"/>
+    <col min="16" max="16" width="11.875" customWidth="1"/>
     <col min="17" max="17" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -1221,37 +1158,37 @@
         <v>15210005447</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>2</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="N2" s="2">
         <v>2</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>23</v>
+        <v>118</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1269,370 +1206,180 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q3" s="9"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="9"/>
-    </row>
-    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="Q3" s="8"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" ht="18" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" ht="18" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" ht="18" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" ht="18" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" ht="18" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" ht="18" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" ht="18" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="1:17" ht="18" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-    </row>
-    <row r="18" spans="1:17" ht="18" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-    </row>
-    <row r="19" spans="1:17" ht="18" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-    </row>
-    <row r="20" spans="1:17" ht="18" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-    </row>
-    <row r="21" spans="1:17" ht="18" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-    </row>
-    <row r="22" spans="1:17" ht="18" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1649,55 +1396,59 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="1" max="1" width="29.25" customWidth="1"/>
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
     <col min="8" max="8" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
+        <v>128</v>
+      </c>
+      <c r="H1" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="10"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="9" t="s">
-        <v>118</v>
+      <c r="H2" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1711,43 +1462,47 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="25.75" customWidth="1"/>
     <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>126</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1762,37 +1517,40 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" t="s">
-        <v>130</v>
+      <c r="A2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1805,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1814,39 +1572,42 @@
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>127</v>
+      <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>128</v>
+      <c r="A2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1858,101 +1619,103 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39.75" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="4" width="23.875" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
     <col min="6" max="6" width="10.125" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="31.375" customWidth="1"/>
-    <col min="9" max="9" width="21.125" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="15.875" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="16.375" customWidth="1"/>
     <col min="12" max="12" width="16.25" customWidth="1"/>
     <col min="13" max="13" width="20.125" customWidth="1"/>
     <col min="14" max="16" width="15.625" customWidth="1"/>
     <col min="17" max="17" width="23.875" customWidth="1"/>
+    <col min="18" max="18" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>4</v>
+      <c r="L1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>81</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1969,84 +1732,24 @@
       <c r="L2" s="2">
         <v>15210005448</v>
       </c>
-      <c r="M2" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>64</v>
+      <c r="M2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="P2" s="2">
         <v>0</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="Q2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2064,7 +1767,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2077,73 +1780,74 @@
     <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.875" customWidth="1"/>
     <col min="12" max="12" width="15.375" customWidth="1"/>
+    <col min="14" max="14" width="13.75" customWidth="1"/>
     <col min="16" max="16" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="1">
         <v>1</v>
       </c>
@@ -2157,25 +1861,25 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="1">
         <v>1</v>
       </c>
@@ -2189,25 +1893,25 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="9"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="1">
         <v>1</v>
       </c>
@@ -2221,25 +1925,25 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="9"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
@@ -2253,23 +1957,23 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>32</v>
+        <v>70</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="9"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="1">
         <v>1</v>
       </c>
@@ -2283,25 +1987,25 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2311,25 +2015,25 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="9"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="1">
         <v>1</v>
       </c>
@@ -2341,25 +2045,25 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="1">
         <v>1</v>
       </c>
@@ -2373,25 +2077,25 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="1">
         <v>1</v>
       </c>
@@ -2407,25 +2111,25 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>32</v>
+        <v>69</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="9"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="1">
         <v>1</v>
       </c>
@@ -2434,32 +2138,32 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>32</v>
+        <v>88</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="1">
         <v>1</v>
       </c>
@@ -2475,25 +2179,25 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>32</v>
+        <v>68</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="1">
         <v>1</v>
       </c>
@@ -2507,17 +2211,17 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2535,7 +2239,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -2576,7 +2280,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2586,152 +2290,174 @@
     <col min="3" max="3" width="31.25" customWidth="1"/>
     <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="8" t="s">
-        <v>32</v>
+      <c r="D2" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="8"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="10"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="10"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="D6" s="9"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>76</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="10"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="1"/>
@@ -2753,91 +2479,51 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="6" width="20.375" customWidth="1"/>
-    <col min="7" max="7" width="29.875" customWidth="1"/>
-    <col min="15" max="15" width="1.375" customWidth="1"/>
-    <col min="16" max="16" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="7" t="s">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>129</v>
+      <c r="E2" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2848,10 +2534,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2863,60 +2549,25 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2928,8 +2579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2942,40 +2593,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>118</v>
+      <c r="D2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4"/>
+      <c r="A3" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2988,70 +2641,76 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="30.25" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="6" max="7" width="14.875" customWidth="1"/>
     <col min="8" max="8" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="10"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="9" t="s">
-        <v>118</v>
+      <c r="H2" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="8" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3065,72 +2724,80 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
     <col min="8" max="8" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="10"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27">
+      <c r="H2" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="9" t="s">
-        <v>118</v>
+      <c r="H3" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/testData/user_test_data.xlsx
+++ b/testData/user_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="add_user" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="139">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,11 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">系统管理员
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>北京市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -468,43 +463,120 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>地址12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证方式13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索临时部门的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索部门为临时部门的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索ROOT部门及其子部门的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOT部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索条件3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad域用户14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查条件1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户状态2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号\名称5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S02_checkout_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S02_search_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索账号或者用户名为aa的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书名称2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户账号2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xt,bm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地址12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证方式13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检索临时部门的用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检索部门为临时部门的用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检索ROOT部门及其子部门的用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROOT部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xt,bm</t>
+    <t xml:space="preserve">xt
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -512,67 +584,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检索条件3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad域用户14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查条件1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户状态2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号\名称5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户角色6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F04_S02_checkout_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F04_S02_search_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检索账号或者用户名为aa的用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名称4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证书名称2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户账号2</t>
+    <t>xt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1053,8 +1065,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1073,7 +1085,7 @@
     <col min="13" max="13" width="12.5" customWidth="1"/>
     <col min="14" max="14" width="13.875" customWidth="1"/>
     <col min="15" max="15" width="14.875" customWidth="1"/>
-    <col min="16" max="16" width="11.875" customWidth="1"/>
+    <col min="16" max="16" width="30.75" customWidth="1"/>
     <col min="17" max="17" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1100,31 +1112,31 @@
         <v>39</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="M1" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>0</v>
@@ -1141,12 +1153,12 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -1171,7 +1183,7 @@
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>8</v>
@@ -1185,10 +1197,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1206,7 +1218,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="Q3" s="8"/>
     </row>
@@ -1414,22 +1426,22 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H1" s="3">
         <v>3</v>
@@ -1437,18 +1449,18 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="9"/>
       <c r="G2" s="1"/>
       <c r="H2" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1478,31 +1490,31 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1516,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1532,25 +1544,25 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1563,7 +1575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1581,33 +1593,33 @@
         <v>33</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1621,8 +1633,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1653,49 +1665,49 @@
         <v>34</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>0</v>
@@ -1712,7 +1724,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -1733,19 +1745,19 @@
         <v>15210005448</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P2" s="2">
         <v>0</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="R2" s="12" t="s">
         <v>41</v>
@@ -1767,7 +1779,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1792,7 +1804,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>36</v>
@@ -1807,28 +1819,28 @@
         <v>39</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>0</v>
@@ -1861,7 +1873,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1">
@@ -1893,7 +1905,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1">
@@ -1925,12 +1937,12 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -1957,15 +1969,15 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>17</v>
@@ -1987,12 +1999,12 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -2015,12 +2027,12 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
@@ -2045,12 +2057,12 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>24</v>
@@ -2077,12 +2089,12 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
@@ -2111,15 +2123,15 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>17</v>
@@ -2145,15 +2157,15 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>17</v>
@@ -2179,15 +2191,15 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>17</v>
@@ -2211,7 +2223,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
@@ -2300,22 +2312,22 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
@@ -2323,7 +2335,7 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2336,7 +2348,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2354,7 +2366,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2372,12 +2384,12 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
@@ -2390,15 +2402,15 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2408,25 +2420,25 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="9"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2437,15 +2449,15 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2456,7 +2468,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2516,14 +2528,14 @@
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2534,20 +2546,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="56.625" customWidth="1"/>
+    <col min="2" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="56.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -2555,18 +2567,24 @@
         <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>132</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2580,7 +2598,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2596,16 +2614,16 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>0</v>
@@ -2613,18 +2631,18 @@
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="7" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2659,22 +2677,22 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
@@ -2682,34 +2700,34 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="9"/>
       <c r="G2" s="1"/>
       <c r="H2" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2743,22 +2761,22 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
@@ -2766,20 +2784,20 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="9"/>
       <c r="G2" s="1"/>
       <c r="H2" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2791,13 +2809,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
